--- a/biology/Médecine/Faisceau_latéral_du_plexus_brachial/Faisceau_latéral_du_plexus_brachial.xlsx
+++ b/biology/Médecine/Faisceau_latéral_du_plexus_brachial/Faisceau_latéral_du_plexus_brachial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Faisceau_lat%C3%A9ral_du_plexus_brachial</t>
+          <t>Faisceau_latéral_du_plexus_brachial</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 Le faisceau latéral du plexus brachial (ou tronc secondaire antéro-externe du plexus brachial) est le tronc nerveux du plexus brachial formé par les divisions antérieures des troncs supérieur et moyen du plexus brachial. Il se compose des contributions des racines C4, C5, C6 et C7.
